--- a/data/trans_orig/P2A_lim_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P2A_lim_R-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>79558</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>65384</v>
+        <v>62756</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>98510</v>
+        <v>96042</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1366256168394771</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1122843073440792</v>
+        <v>0.107771305613472</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1691720573680622</v>
+        <v>0.1649336815758888</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>119</v>
@@ -765,19 +765,19 @@
         <v>125138</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>104473</v>
+        <v>104968</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>148584</v>
+        <v>146701</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1358243133520212</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1133951876144397</v>
+        <v>0.1139323376924976</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1612729601432196</v>
+        <v>0.1592288756819854</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>196</v>
@@ -786,19 +786,19 @@
         <v>204696</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>178460</v>
+        <v>175863</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>233546</v>
+        <v>234270</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1361346330911744</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1186861635652728</v>
+        <v>0.1169590767212684</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1553213882326095</v>
+        <v>0.1558031788593567</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>502750</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>483798</v>
+        <v>486266</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>516924</v>
+        <v>519552</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.863374383160523</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8308279426319378</v>
+        <v>0.8350663184241112</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8877156926559209</v>
+        <v>0.8922286943865276</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>765</v>
@@ -836,19 +836,19 @@
         <v>796182</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>772736</v>
+        <v>774619</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>816847</v>
+        <v>816352</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8641756866479788</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8387270398567804</v>
+        <v>0.8407711243180146</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8866048123855602</v>
+        <v>0.8860676623075023</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1260</v>
@@ -857,19 +857,19 @@
         <v>1298932</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1270082</v>
+        <v>1269358</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1325168</v>
+        <v>1327765</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8638653669088256</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8446786117673907</v>
+        <v>0.8441968211406431</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8813138364347273</v>
+        <v>0.8830409232787311</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>68987</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>54132</v>
+        <v>53494</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>86817</v>
+        <v>85656</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06416109280250948</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05034556190228111</v>
+        <v>0.04975191888598188</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08074419807001601</v>
+        <v>0.07966489863958834</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>56</v>
@@ -982,19 +982,19 @@
         <v>60525</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>46014</v>
+        <v>46229</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>77089</v>
+        <v>77449</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05735401433057979</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04360307339364785</v>
+        <v>0.04380636105832139</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07304961840613818</v>
+        <v>0.07339068509877236</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>125</v>
@@ -1003,19 +1003,19 @@
         <v>129512</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>109073</v>
+        <v>108136</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>155048</v>
+        <v>153285</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06078936846354571</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05119603720902473</v>
+        <v>0.05075594879812813</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07277562818368719</v>
+        <v>0.07194792924886072</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1006221</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>988391</v>
+        <v>989552</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1021076</v>
+        <v>1021714</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9358389071974905</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9192558019299842</v>
+        <v>0.9203351013604115</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.949654438097719</v>
+        <v>0.950248081114018</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>970</v>
@@ -1053,19 +1053,19 @@
         <v>994767</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>978203</v>
+        <v>977843</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1009278</v>
+        <v>1009063</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9426459856694203</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9269503815938619</v>
+        <v>0.9266093149012276</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9563969266063522</v>
+        <v>0.9561936389416786</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1954</v>
@@ -1074,19 +1074,19 @@
         <v>2000988</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1975452</v>
+        <v>1977215</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2021427</v>
+        <v>2022364</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9392106315364543</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9272243718163128</v>
+        <v>0.9280520707511398</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9488039627909752</v>
+        <v>0.9492440512018725</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>48822</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>37733</v>
+        <v>36857</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>64863</v>
+        <v>64663</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04360084603571625</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03369769778813002</v>
+        <v>0.0329154215586468</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0579273304290245</v>
+        <v>0.05774830409857063</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>56</v>
@@ -1199,19 +1199,19 @@
         <v>58492</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>45545</v>
+        <v>44421</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>75873</v>
+        <v>75074</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05890846031609883</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04587003434964631</v>
+        <v>0.04473782740934944</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07641387852344253</v>
+        <v>0.0756087726038308</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>105</v>
@@ -1220,19 +1220,19 @@
         <v>107313</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>87358</v>
+        <v>87476</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>128623</v>
+        <v>130463</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0507952208413524</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04134960530360551</v>
+        <v>0.04140555050281486</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06088222056752396</v>
+        <v>0.06175290437005761</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>1070916</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1054875</v>
+        <v>1055075</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1082005</v>
+        <v>1082881</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9563991539642838</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9420726695709752</v>
+        <v>0.9422516959014292</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.96630230221187</v>
+        <v>0.9670845784413531</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>925</v>
@@ -1270,19 +1270,19 @@
         <v>934430</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>917049</v>
+        <v>917848</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>947377</v>
+        <v>948501</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9410915396839011</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9235861214765574</v>
+        <v>0.9243912273961692</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9541299656503537</v>
+        <v>0.9552621725906506</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1977</v>
@@ -1291,19 +1291,19 @@
         <v>2005347</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1984037</v>
+        <v>1982197</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2025302</v>
+        <v>2025184</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9492047791586476</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.939117779432476</v>
+        <v>0.9382470956299424</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9586503946963945</v>
+        <v>0.9585944494971852</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>16016</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9091</v>
+        <v>9113</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25410</v>
+        <v>26474</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03604898336376848</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02046081072153737</v>
+        <v>0.02051103009232631</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05719127690979842</v>
+        <v>0.05958710487981971</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>20</v>
@@ -1416,19 +1416,19 @@
         <v>20660</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12475</v>
+        <v>12509</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30771</v>
+        <v>31136</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06055739275628139</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03656641781007819</v>
+        <v>0.03666574286061968</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09019675747956342</v>
+        <v>0.09126678060581946</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>35</v>
@@ -1437,19 +1437,19 @@
         <v>36676</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>26217</v>
+        <v>25373</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>49719</v>
+        <v>49850</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04669405789849935</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03337778903993038</v>
+        <v>0.03230302697232641</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06330000828022429</v>
+        <v>0.06346626100460427</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>428282</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>418888</v>
+        <v>417824</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>435207</v>
+        <v>435185</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9639510166362315</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9428087230902022</v>
+        <v>0.9404128951201804</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9795391892784631</v>
+        <v>0.9794889699076738</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>319</v>
@@ -1487,19 +1487,19 @@
         <v>320498</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>310387</v>
+        <v>310022</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>328683</v>
+        <v>328649</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9394426072437186</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9098032425204367</v>
+        <v>0.9087332193941804</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9634335821899217</v>
+        <v>0.9633342571393804</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>737</v>
@@ -1508,19 +1508,19 @@
         <v>748780</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>735737</v>
+        <v>735606</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>759239</v>
+        <v>760083</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9533059421015007</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9366999917197757</v>
+        <v>0.9365337389953957</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9666222109600695</v>
+        <v>0.9676969730276737</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>213383</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>187430</v>
+        <v>186466</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>242440</v>
+        <v>245532</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0662360008883197</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05818008072588417</v>
+        <v>0.05788086866344976</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0752555320811245</v>
+        <v>0.07621533567645151</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>251</v>
@@ -1633,19 +1633,19 @@
         <v>264814</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>235077</v>
+        <v>235674</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>299944</v>
+        <v>298800</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07998751365434154</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07100550854899908</v>
+        <v>0.07118584699496704</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09059848679868021</v>
+        <v>0.09025305472683826</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>461</v>
@@ -1654,19 +1654,19 @@
         <v>478197</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>436365</v>
+        <v>435493</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>520300</v>
+        <v>521808</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07320558573149732</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06680176053853809</v>
+        <v>0.06666813721800635</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07965111153253156</v>
+        <v>0.07988189116568976</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3008169</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2979112</v>
+        <v>2976020</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3034122</v>
+        <v>3035086</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9337639991116803</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.924744467918875</v>
+        <v>0.9237846643235484</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9418199192741157</v>
+        <v>0.9421191313365502</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2979</v>
@@ -1704,19 +1704,19 @@
         <v>3045879</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3010749</v>
+        <v>3011893</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3075616</v>
+        <v>3075019</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9200124863456585</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.90940151320132</v>
+        <v>0.9097469452731619</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.928994491451001</v>
+        <v>0.9288141530050331</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5928</v>
@@ -1725,19 +1725,19 @@
         <v>6054047</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6011944</v>
+        <v>6010436</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6095879</v>
+        <v>6096751</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9267944142685026</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9203488884674684</v>
+        <v>0.9201181088343102</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9331982394614619</v>
+        <v>0.9333318627819936</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>114443</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>94579</v>
+        <v>96097</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>137750</v>
+        <v>137167</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1097303385014433</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09068399076041422</v>
+        <v>0.09213925372309978</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1320770250222177</v>
+        <v>0.1315180691402838</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>133</v>
@@ -2090,19 +2090,19 @@
         <v>146478</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>123314</v>
+        <v>121305</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>169940</v>
+        <v>171240</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1307924646305208</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1101084414395377</v>
+        <v>0.1083150624310384</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1517414905507071</v>
+        <v>0.1529030524511046</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>239</v>
@@ -2111,19 +2111,19 @@
         <v>260921</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>229193</v>
+        <v>232228</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>293674</v>
+        <v>296658</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1206362143814398</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1059664975777878</v>
+        <v>0.1073698711456383</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1357791081681172</v>
+        <v>0.1371589367290354</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>928506</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>905199</v>
+        <v>905782</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>948370</v>
+        <v>946852</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8902696614985567</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8679229749777826</v>
+        <v>0.8684819308597161</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9093160092395858</v>
+        <v>0.9078607462769004</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>898</v>
@@ -2161,19 +2161,19 @@
         <v>973450</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>949988</v>
+        <v>948688</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>996614</v>
+        <v>998623</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8692075353694793</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8482585094492928</v>
+        <v>0.8470969475488955</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8898915585604624</v>
+        <v>0.8916849375689616</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1769</v>
@@ -2182,19 +2182,19 @@
         <v>1901956</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1869203</v>
+        <v>1866219</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1933684</v>
+        <v>1930649</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8793637856185602</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8642208918318829</v>
+        <v>0.8628410632709647</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8940335024222121</v>
+        <v>0.8926301288543618</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>105955</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>87691</v>
+        <v>86989</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>129426</v>
+        <v>129063</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1085575708103403</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08984516874438719</v>
+        <v>0.08912545354326513</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1326051344459185</v>
+        <v>0.1322338241862563</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>117</v>
@@ -2307,19 +2307,19 @@
         <v>127376</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>108206</v>
+        <v>106624</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>150801</v>
+        <v>148992</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1165046810456242</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09897016309084798</v>
+        <v>0.09752329770510165</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1379302911326338</v>
+        <v>0.1362758384360732</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>211</v>
@@ -2328,19 +2328,19 @@
         <v>233331</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>201910</v>
+        <v>203864</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>264256</v>
+        <v>265602</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1127563480553657</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09757217597998576</v>
+        <v>0.09851660289715072</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1277007594762033</v>
+        <v>0.1283509717483765</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>870069</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>846598</v>
+        <v>846961</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>888333</v>
+        <v>889035</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8914424291896597</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8673948655540815</v>
+        <v>0.8677661758137437</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9101548312556128</v>
+        <v>0.9108745464567348</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>902</v>
@@ -2378,19 +2378,19 @@
         <v>965939</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>942514</v>
+        <v>944323</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>985109</v>
+        <v>986691</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8834953189543758</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8620697088673663</v>
+        <v>0.8637241615639268</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9010298369091521</v>
+        <v>0.9024767022948985</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1731</v>
@@ -2399,19 +2399,19 @@
         <v>1836008</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1805083</v>
+        <v>1803737</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1867429</v>
+        <v>1865475</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8872436519446343</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8722992405237969</v>
+        <v>0.8716490282516235</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9024278240200143</v>
+        <v>0.9014833971028493</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>71833</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>56502</v>
+        <v>56178</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>91037</v>
+        <v>88817</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08126014340775342</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06391777419735617</v>
+        <v>0.06355152000832302</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1029854446437659</v>
+        <v>0.100474003794595</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>74</v>
@@ -2524,19 +2524,19 @@
         <v>78681</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>61630</v>
+        <v>63461</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>96251</v>
+        <v>95681</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08983989336107429</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07036996174280107</v>
+        <v>0.07246122050493035</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1099016657491817</v>
+        <v>0.1092502398440352</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>141</v>
@@ -2545,19 +2545,19 @@
         <v>150514</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>127807</v>
+        <v>127474</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>176232</v>
+        <v>177869</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08553006018981148</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07262646633814492</v>
+        <v>0.07243777714635884</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.100144510608037</v>
+        <v>0.1010744500892406</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>812150</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>792946</v>
+        <v>795166</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>827481</v>
+        <v>827805</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9187398565922466</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8970145553562342</v>
+        <v>0.899525996205405</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9360822258026438</v>
+        <v>0.9364484799916769</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>747</v>
@@ -2595,19 +2595,19 @@
         <v>797115</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>779545</v>
+        <v>780115</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>814166</v>
+        <v>812335</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9101601066389257</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8900983342508184</v>
+        <v>0.8907497601559651</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9296300382571989</v>
+        <v>0.9275387794950696</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1509</v>
@@ -2616,19 +2616,19 @@
         <v>1609265</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1583547</v>
+        <v>1581910</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1631972</v>
+        <v>1632305</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9144699398101885</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8998554893919629</v>
+        <v>0.8989255499107593</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.927373533661855</v>
+        <v>0.9275622228536412</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>32756</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>21960</v>
+        <v>21412</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>47601</v>
+        <v>46834</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06511873960141851</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0436556359896366</v>
+        <v>0.04256605615352874</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09463039616757613</v>
+        <v>0.09310449116863986</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>45</v>
@@ -2741,19 +2741,19 @@
         <v>53261</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>39057</v>
+        <v>38721</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>70374</v>
+        <v>66688</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1178883108545004</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08644942660024874</v>
+        <v>0.0857067352599567</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1557688316514726</v>
+        <v>0.1476088417777509</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>71</v>
@@ -2762,19 +2762,19 @@
         <v>86017</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>67364</v>
+        <v>68731</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>107878</v>
+        <v>106816</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09008773950171738</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07055182427970065</v>
+        <v>0.0719840162990544</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1129836990636172</v>
+        <v>0.1118715498463075</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>470267</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>455422</v>
+        <v>456189</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>481063</v>
+        <v>481611</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9348812603985815</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9053696038324236</v>
+        <v>0.9068955088313601</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9563443640103633</v>
+        <v>0.957433943846471</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>366</v>
@@ -2812,19 +2812,19 @@
         <v>398527</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>381414</v>
+        <v>385100</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>412731</v>
+        <v>413067</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8821116891454996</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8442311683485275</v>
+        <v>0.8523911582222491</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9135505733997513</v>
+        <v>0.9142932647400434</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>801</v>
@@ -2833,19 +2833,19 @@
         <v>868794</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>846933</v>
+        <v>847995</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>887447</v>
+        <v>886080</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9099122604982827</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.887016300936383</v>
+        <v>0.8881284501536927</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9294481757202995</v>
+        <v>0.9280159837009458</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>324987</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>291333</v>
+        <v>289682</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>359775</v>
+        <v>363457</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09541655049320302</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08553579879943297</v>
+        <v>0.08505096323001132</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1056305064809929</v>
+        <v>0.1067114390893317</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>369</v>
@@ -2958,19 +2958,19 @@
         <v>405796</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>370586</v>
+        <v>368235</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>450031</v>
+        <v>445828</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1146049814705948</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1046608874678957</v>
+        <v>0.1039968116474963</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1270975786933882</v>
+        <v>0.1259107976691538</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>662</v>
@@ -2979,19 +2979,19 @@
         <v>730783</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>670382</v>
+        <v>677416</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>778501</v>
+        <v>790715</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1051970048417722</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09650219320903096</v>
+        <v>0.09751478046840066</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1120659867300911</v>
+        <v>0.1138242624930926</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3080992</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3046204</v>
+        <v>3042522</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3114646</v>
+        <v>3116297</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9045834495067969</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8943694935190072</v>
+        <v>0.8932885609106682</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9144642012005669</v>
+        <v>0.9149490367699886</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2913</v>
@@ -3029,19 +3029,19 @@
         <v>3135031</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3090796</v>
+        <v>3094999</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3170241</v>
+        <v>3172592</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8853950185294052</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8729024213066118</v>
+        <v>0.8740892023308463</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8953391125321043</v>
+        <v>0.8960031883525037</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5810</v>
@@ -3050,19 +3050,19 @@
         <v>6216023</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6168305</v>
+        <v>6156091</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6276424</v>
+        <v>6269390</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8948029951582278</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.887934013269909</v>
+        <v>0.886175737506907</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.903497806790969</v>
+        <v>0.9024852195315993</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>102449</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>84298</v>
+        <v>86259</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>123752</v>
+        <v>123498</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09091319378294033</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07480593145554316</v>
+        <v>0.07654679683668042</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1098176605243195</v>
+        <v>0.1095925297691259</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>130</v>
@@ -3415,19 +3415,19 @@
         <v>144214</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>121825</v>
+        <v>120924</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>168507</v>
+        <v>168884</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.114758937035473</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09694278980978294</v>
+        <v>0.09622533218331321</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1340901144989041</v>
+        <v>0.1343900149561152</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>226</v>
@@ -3436,19 +3436,19 @@
         <v>246663</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>215283</v>
+        <v>218087</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>277934</v>
+        <v>279908</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1034852746537234</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09031986810914173</v>
+        <v>0.09149636102470261</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1166047297101658</v>
+        <v>0.1174330318432486</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>1024436</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1003133</v>
+        <v>1003387</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1042587</v>
+        <v>1040626</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9090868062170596</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8901823394756806</v>
+        <v>0.8904074702308742</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9251940685444568</v>
+        <v>0.9234532031633196</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1055</v>
@@ -3486,19 +3486,19 @@
         <v>1112458</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1088165</v>
+        <v>1087788</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1134847</v>
+        <v>1135748</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.885241062964527</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8659098855010956</v>
+        <v>0.865609985043885</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9030572101902169</v>
+        <v>0.9037746678166868</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2024</v>
@@ -3507,19 +3507,19 @@
         <v>2136894</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2105623</v>
+        <v>2103649</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2168274</v>
+        <v>2165470</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8965147253462766</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8833952702898342</v>
+        <v>0.8825669681567515</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9096801318908582</v>
+        <v>0.9085036389752976</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>53102</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>40350</v>
+        <v>41047</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>68542</v>
+        <v>68428</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0589686759927611</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04480769900403819</v>
+        <v>0.04558162670426497</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07611452007565686</v>
+        <v>0.0759873193132265</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>71</v>
@@ -3632,19 +3632,19 @@
         <v>79173</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>63176</v>
+        <v>60710</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>97958</v>
+        <v>96101</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07898987394384688</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06302973078924001</v>
+        <v>0.0605691971001108</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09773164447264612</v>
+        <v>0.09587889412345728</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>122</v>
@@ -3653,19 +3653,19 @@
         <v>132275</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>111597</v>
+        <v>110447</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>158683</v>
+        <v>156404</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06951484952467474</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05864804005852303</v>
+        <v>0.05804371593139259</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08339301256943804</v>
+        <v>0.08219527198672594</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>847413</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>831973</v>
+        <v>832087</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>860165</v>
+        <v>859468</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9410313240072389</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9238854799243433</v>
+        <v>0.9240126806867734</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9551923009959619</v>
+        <v>0.954418373295735</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>876</v>
@@ -3703,19 +3703,19 @@
         <v>923145</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>904360</v>
+        <v>906217</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>939142</v>
+        <v>941608</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9210101260561532</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.902268355527354</v>
+        <v>0.9041211058765427</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9369702692107601</v>
+        <v>0.9394308028998892</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1698</v>
@@ -3724,19 +3724,19 @@
         <v>1770558</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1744150</v>
+        <v>1746429</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1791236</v>
+        <v>1792386</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9304851504753253</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9166069874305619</v>
+        <v>0.9178047280132735</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9413519599414768</v>
+        <v>0.9419562840686073</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>51918</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>38450</v>
+        <v>38772</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>68321</v>
+        <v>69046</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06350657660256055</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04703158889829046</v>
+        <v>0.04742540535347241</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08357055164174501</v>
+        <v>0.08445774077890661</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>45</v>
@@ -3849,19 +3849,19 @@
         <v>49380</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>35896</v>
+        <v>35346</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>64412</v>
+        <v>63186</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0640416782944782</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04655470984602738</v>
+        <v>0.04584147703919366</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08353681840146446</v>
+        <v>0.08194742613865198</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>92</v>
@@ -3870,19 +3870,19 @@
         <v>101298</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>82759</v>
+        <v>83281</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>124203</v>
+        <v>125000</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06376630134630956</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05209606242307298</v>
+        <v>0.05242481000585529</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07818474121863909</v>
+        <v>0.07868606550454349</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>765608</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>749205</v>
+        <v>748480</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>779076</v>
+        <v>778754</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9364934233974395</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9164294483582551</v>
+        <v>0.9155422592210921</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9529684111017096</v>
+        <v>0.9525745946465271</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>683</v>
@@ -3920,19 +3920,19 @@
         <v>721679</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>706647</v>
+        <v>707873</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>735163</v>
+        <v>735713</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9359583217055218</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9164631815985355</v>
+        <v>0.918052573861348</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9534452901539725</v>
+        <v>0.9541585229608063</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1418</v>
@@ -3941,19 +3941,19 @@
         <v>1487287</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1464382</v>
+        <v>1463585</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1505826</v>
+        <v>1505304</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9362336986536904</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9218152587813609</v>
+        <v>0.9213139344954566</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9479039375769275</v>
+        <v>0.9475751899941447</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>27456</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18012</v>
+        <v>18131</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>39803</v>
+        <v>40649</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05429972335164891</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03562221072884493</v>
+        <v>0.03585789141743864</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07871919483252941</v>
+        <v>0.08039249356907377</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>30</v>
@@ -4066,19 +4066,19 @@
         <v>34265</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23997</v>
+        <v>23966</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>48193</v>
+        <v>47506</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06997108673026638</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04900354277138783</v>
+        <v>0.04894070777418198</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09841352984049621</v>
+        <v>0.09701167286193239</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>56</v>
@@ -4087,19 +4087,19 @@
         <v>61720</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>45713</v>
+        <v>47102</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>79834</v>
+        <v>80145</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06200998517788829</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04592774574050042</v>
+        <v>0.04732297899615093</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08020919539520678</v>
+        <v>0.08052100615667823</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>478173</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>465826</v>
+        <v>464980</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>487617</v>
+        <v>487498</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9457002766483511</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9212808051674706</v>
+        <v>0.919607506430926</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.964377789271155</v>
+        <v>0.9641421085825613</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>425</v>
@@ -4137,19 +4137,19 @@
         <v>455433</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>441505</v>
+        <v>442192</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>465701</v>
+        <v>465732</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9300289132697336</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.901586470159504</v>
+        <v>0.9029883271380674</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9509964572286121</v>
+        <v>0.951059292225818</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>869</v>
@@ -4158,19 +4158,19 @@
         <v>933607</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>915493</v>
+        <v>915182</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>949614</v>
+        <v>948225</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9379900148221118</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9197908046047938</v>
+        <v>0.919478993843322</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9540722542594997</v>
+        <v>0.9526770210038491</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>234925</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>204597</v>
+        <v>204209</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>266458</v>
+        <v>265234</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07011515747044982</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06106367981897099</v>
+        <v>0.0609477011934155</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07952648183676587</v>
+        <v>0.07916117498351892</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>276</v>
@@ -4283,19 +4283,19 @@
         <v>307032</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>271123</v>
+        <v>274161</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>342539</v>
+        <v>344627</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0872312524243757</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07702907764235563</v>
+        <v>0.07789213324657672</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09731910608146045</v>
+        <v>0.09791254032952108</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>496</v>
@@ -4304,19 +4304,19 @@
         <v>541957</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>492883</v>
+        <v>497251</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>586204</v>
+        <v>587772</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07888395843405355</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07174111753649318</v>
+        <v>0.07237694096555303</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08532440086703753</v>
+        <v>0.08555263143287392</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3115631</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3084098</v>
+        <v>3085322</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3145959</v>
+        <v>3146347</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9298848425295502</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9204735181632342</v>
+        <v>0.9208388250164812</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.938936320181029</v>
+        <v>0.9390522988065846</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3039</v>
@@ -4354,19 +4354,19 @@
         <v>3212714</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3177207</v>
+        <v>3175119</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3248623</v>
+        <v>3245585</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9127687475756243</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9026808939185396</v>
+        <v>0.9020874596704789</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9229709223576444</v>
+        <v>0.9221078667534233</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6009</v>
@@ -4375,19 +4375,19 @@
         <v>6328345</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6284098</v>
+        <v>6282530</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6377419</v>
+        <v>6373051</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9211160415659465</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9146755991329627</v>
+        <v>0.9144473685671262</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.928258882463507</v>
+        <v>0.9276230590344471</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>108736</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>91288</v>
+        <v>90279</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>129592</v>
+        <v>130518</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.219050146411886</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1839008306766601</v>
+        <v>0.1818691672505129</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2610645542623341</v>
+        <v>0.2629305484841149</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>197</v>
@@ -4740,19 +4740,19 @@
         <v>128124</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>110597</v>
+        <v>110797</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>145260</v>
+        <v>145519</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2056847844813244</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1775473874867939</v>
+        <v>0.1778696094417929</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.233194839873075</v>
+        <v>0.2336099503727735</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>312</v>
@@ -4761,19 +4761,19 @@
         <v>236860</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>211641</v>
+        <v>212683</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>264594</v>
+        <v>261676</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2116121150096501</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1890812896802819</v>
+        <v>0.1900125554569641</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2363901759595803</v>
+        <v>0.2337834345526875</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>387661</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>366805</v>
+        <v>365879</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>405109</v>
+        <v>406118</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.780949853588114</v>
+        <v>0.7809498535881141</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7389354457376658</v>
+        <v>0.7370694515158845</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8160991693233391</v>
+        <v>0.8181308327494869</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>663</v>
@@ -4811,19 +4811,19 @@
         <v>494790</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>477654</v>
+        <v>477395</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>512317</v>
+        <v>512117</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7943152155186756</v>
+        <v>0.7943152155186757</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.766805160126925</v>
+        <v>0.7663900496272269</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8224526125132062</v>
+        <v>0.8221303905582075</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1001</v>
@@ -4832,19 +4832,19 @@
         <v>882451</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>854717</v>
+        <v>857635</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>907670</v>
+        <v>906628</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7883878849903497</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7636098240404198</v>
+        <v>0.7662165654473125</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8109187103197181</v>
+        <v>0.8099874445430354</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>153418</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>131222</v>
+        <v>130376</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>179239</v>
+        <v>177820</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1606826156980326</v>
+        <v>0.1606826156980327</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1374357263884552</v>
+        <v>0.1365495162256658</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1877262979766813</v>
+        <v>0.1862402302459404</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>302</v>
@@ -4957,19 +4957,19 @@
         <v>188123</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>169365</v>
+        <v>168284</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>213575</v>
+        <v>211806</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1687955817089564</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1519646406532366</v>
+        <v>0.1509946523399612</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1916322632590197</v>
+        <v>0.1900456333480778</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>466</v>
@@ -4978,19 +4978,19 @@
         <v>341541</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>307948</v>
+        <v>307491</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>372070</v>
+        <v>372950</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1650521909428867</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1488179611534805</v>
+        <v>0.1485972966963361</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1798055385482411</v>
+        <v>0.1802310134678197</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>801370</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>775549</v>
+        <v>776968</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>823566</v>
+        <v>824412</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8393173843019675</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8122737020233189</v>
+        <v>0.8137597697540594</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8625642736115454</v>
+        <v>0.8634504837743342</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1303</v>
@@ -5028,19 +5028,19 @@
         <v>926379</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>900927</v>
+        <v>902696</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>945137</v>
+        <v>946218</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8312044182910436</v>
+        <v>0.8312044182910437</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8083677367409803</v>
+        <v>0.8099543666519223</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8480353593467633</v>
+        <v>0.8490053476600388</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2046</v>
@@ -5049,19 +5049,19 @@
         <v>1727749</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1697220</v>
+        <v>1696340</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1761342</v>
+        <v>1761799</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8349478090571132</v>
+        <v>0.8349478090571133</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8201944614517589</v>
+        <v>0.8197689865321804</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8511820388465197</v>
+        <v>0.8514027033036639</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>113345</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>96170</v>
+        <v>95763</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>136725</v>
+        <v>135272</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1083105094257741</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09189858618889231</v>
+        <v>0.09150998090416354</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.130652803247601</v>
+        <v>0.1292639257031949</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>192</v>
@@ -5174,19 +5174,19 @@
         <v>124224</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>106668</v>
+        <v>106560</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>142937</v>
+        <v>143624</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1190442631756977</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1022198314343095</v>
+        <v>0.1021160668125383</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1369760982586673</v>
+        <v>0.1376345705111109</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>314</v>
@@ -5195,19 +5195,19 @@
         <v>237569</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>212803</v>
+        <v>211425</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>268923</v>
+        <v>269266</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1136697745348383</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.101819830590346</v>
+        <v>0.1011608110792199</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1286717332119321</v>
+        <v>0.1288358810673048</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>933134</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>909754</v>
+        <v>911207</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>950309</v>
+        <v>950716</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.891689490574226</v>
+        <v>0.8916894905742259</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.869347196752399</v>
+        <v>0.8707360742968044</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9081014138111078</v>
+        <v>0.9084900190958365</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1316</v>
@@ -5245,19 +5245,19 @@
         <v>919291</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>900578</v>
+        <v>899891</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>936847</v>
+        <v>936955</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8809557368243023</v>
+        <v>0.8809557368243024</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8630239017413323</v>
+        <v>0.8623654294888892</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8977801685656902</v>
+        <v>0.8978839331874632</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2223</v>
@@ -5266,19 +5266,19 @@
         <v>1852425</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1821071</v>
+        <v>1820728</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1877191</v>
+        <v>1878569</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8863302254651616</v>
+        <v>0.8863302254651617</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8713282667880679</v>
+        <v>0.8711641189326953</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8981801694096542</v>
+        <v>0.8988391889207801</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>94131</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>74506</v>
+        <v>78482</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>112559</v>
+        <v>116590</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.09827469061847033</v>
+        <v>0.09827469061847034</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07778578514522271</v>
+        <v>0.08193732320712718</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1175147338081533</v>
+        <v>0.1217231418172229</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>143</v>
@@ -5391,19 +5391,19 @@
         <v>92713</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>79616</v>
+        <v>79305</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>109779</v>
+        <v>110176</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1031840616348053</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08860810673118799</v>
+        <v>0.08826179861557494</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1221778331079608</v>
+        <v>0.1226195704836651</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>249</v>
@@ -5412,19 +5412,19 @@
         <v>186844</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>163587</v>
+        <v>164207</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>211721</v>
+        <v>212797</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1006509485575827</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08812265920847503</v>
+        <v>0.08845697595062547</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1140523319296401</v>
+        <v>0.1146315490515516</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>863701</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>845273</v>
+        <v>841242</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>883326</v>
+        <v>879350</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9017253093815297</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8824852661918469</v>
+        <v>0.8782768581827767</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9222142148547774</v>
+        <v>0.9180626767928727</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1158</v>
@@ -5462,19 +5462,19 @@
         <v>805808</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>788742</v>
+        <v>788345</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>818905</v>
+        <v>819216</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8968159383651947</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8778221668920396</v>
+        <v>0.8773804295163349</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.911391893268812</v>
+        <v>0.9117382013844252</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1983</v>
@@ -5483,19 +5483,19 @@
         <v>1669509</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1644632</v>
+        <v>1643556</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1692766</v>
+        <v>1692146</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8993490514424175</v>
+        <v>0.8993490514424173</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.88594766807036</v>
+        <v>0.8853684509484482</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.911877340791525</v>
+        <v>0.9115430240493746</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>469629</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>426633</v>
+        <v>428073</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>513043</v>
+        <v>515472</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1359078337450383</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1234649253288308</v>
+        <v>0.12388191521706</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1484717337594921</v>
+        <v>0.1491746242149181</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>834</v>
@@ -5608,19 +5608,19 @@
         <v>533184</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>495794</v>
+        <v>494654</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>571909</v>
+        <v>569416</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1449086590450406</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1347468019016415</v>
+        <v>0.1344369853035132</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1554331606128224</v>
+        <v>0.154755674455699</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1341</v>
@@ -5629,19 +5629,19 @@
         <v>1002813</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>949566</v>
+        <v>948686</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1056876</v>
+        <v>1060033</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1405495082112621</v>
+        <v>0.1405495082112622</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1330866181947895</v>
+        <v>0.1329632047909075</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1481266897737845</v>
+        <v>0.1485691745433129</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2985867</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2942453</v>
+        <v>2940024</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3028863</v>
+        <v>3027423</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8640921662549618</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.851528266240508</v>
+        <v>0.8508253757850819</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8765350746711692</v>
+        <v>0.8761180847829402</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4440</v>
@@ -5679,19 +5679,19 @@
         <v>3146268</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3107543</v>
+        <v>3110036</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3183658</v>
+        <v>3184798</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8550913409549593</v>
+        <v>0.8550913409549594</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8445668393871777</v>
+        <v>0.8452443255443014</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8652531980983599</v>
+        <v>0.8655630146964869</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7253</v>
@@ -5700,19 +5700,19 @@
         <v>6132135</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6078072</v>
+        <v>6074915</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6185382</v>
+        <v>6186262</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8594504917887378</v>
+        <v>0.8594504917887379</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8518733102262153</v>
+        <v>0.8514308254566869</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8669133818052105</v>
+        <v>0.8670367952090925</v>
       </c>
     </row>
     <row r="18">
